--- a/bots/crawl_ch/output/toilet_coop_2022-09-15.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -675,50 +675,50 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>140ST</t>
+          <t>4x 50ST</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>3.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -743,55 +743,55 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4x 50ST</t>
+          <t>140ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>3.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -894,175 +894,175 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>4x 60ST</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.03/1ST</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.03/1ST</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4x 60ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1087,17 +1087,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -2183,50 +2183,50 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2246,90 +2246,90 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 33% Aktion 6.65 Schweizer Franken statt 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6283677</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>144ST</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.46/1Rol</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 33% Aktion 6.65 Schweizer Franken statt 9.95 Schweizer Franken</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
@@ -2473,50 +2473,48 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6283677</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>32Rol</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.46/1Rol</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2526,7 +2524,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2541,126 +2539,128 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2685,85 +2685,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-15 07:13:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>6727164</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>80ST</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>2022-09-15 07:13:06</t>
+          <t>2022-09-15 21:01:51</t>
         </is>
       </c>
     </row>
